--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -443,10 +443,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -817,1332 +817,1283 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2301</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>13002307</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>13002302</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
         <v>13002303</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
         <v>13002305</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
         <v>13002306</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2302</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>13002308</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>13002301</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
         <v>13002304</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
         <v>13002311</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
         <v>13002215</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
         <v>13002112</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>2303</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>13002316</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>13002314</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
         <v>13002327</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
         <v>13002328</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
         <v>13002329</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1">
         <v>13002317</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
         <v>13002326</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>2304</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>13002331</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>13002312</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
         <v>13002319</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1">
         <v>13002324</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
         <v>13002318</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1">
         <v>13002313</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1">
         <v>13002330</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1">
         <v>13002310</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>2305</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>13002322</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>13002325</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1">
         <v>13002122</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1">
         <v>13002211</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1">
         <v>13002334</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>2306</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>13002321</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>13002333</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1">
         <v>13002335</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1">
         <v>13002332</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1">
         <v>13002320</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1">
         <v>13002323</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>2101</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>13002133</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>13002121</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1">
         <v>13002111</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1">
         <v>13002124</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1">
         <v>13002120</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1">
         <v>13002103</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1">
         <v>13002106</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1">
         <v>13002125</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>2102</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>13002119</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>13002126</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1">
         <v>13002132</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1">
         <v>13002114</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1">
         <v>13002131</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>2103</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>13002127</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>13002117</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1">
         <v>13002128</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1">
         <v>13002129</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1">
         <v>13002116</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1">
         <v>13002115</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1">
         <v>13002118</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>2104</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>13002107</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>13002101</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1">
         <v>13002102</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1">
         <v>13002104</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1">
         <v>13002105</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1">
         <v>13002108</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1">
         <v>13002109</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1">
         <v>13002110</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>2201</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>13002210</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>13002201</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1">
         <v>13002202</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1">
         <v>13002203</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1">
         <v>13002205</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1">
         <v>13002206</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1">
         <v>13002207</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1">
         <v>13002208</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1">
         <v>13002209</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>2202</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>13002219</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>13002217</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1">
         <v>13002216</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1">
         <v>13002228</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1">
         <v>13002229</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1">
         <v>13002226</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1">
         <v>13002231</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>2203</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>13002213</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>13002225</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1">
         <v>13002220</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1">
         <v>13002218</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1">
         <v>13002230</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1">
         <v>13002227</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1">
         <v>13002234</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>2204</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>14002235</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>13002212</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1">
         <v>13002232</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1">
         <v>13002223</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1">
         <v>13002222</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1">
         <v>13002224</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1">
         <v>13002221</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="1">
         <v>13002233</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
@@ -2150,18 +2101,71 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -171,202 +171,203 @@
     <t>RSA的加密和解密</t>
   </si>
   <si>
+    <t>李皞</t>
+  </si>
+  <si>
+    <t>马菁宇</t>
+  </si>
+  <si>
+    <t>杨徐峰</t>
+  </si>
+  <si>
+    <t>李翔宇</t>
+  </si>
+  <si>
+    <t>许寒玲</t>
+  </si>
+  <si>
+    <t>杨静</t>
+  </si>
+  <si>
+    <t>邱洪明</t>
+  </si>
+  <si>
+    <t>图书馆书目检索系统</t>
+  </si>
+  <si>
+    <t>李正</t>
+  </si>
+  <si>
+    <t>周子博</t>
+  </si>
+  <si>
+    <t>靳轩</t>
+  </si>
+  <si>
+    <t>王硕</t>
+  </si>
+  <si>
+    <t>蒋坤</t>
+  </si>
+  <si>
+    <t>BMI贴身顾问</t>
+  </si>
+  <si>
+    <t>周文祥</t>
+  </si>
+  <si>
+    <t>庄忠琪</t>
+  </si>
+  <si>
+    <t>茅华荣</t>
+  </si>
+  <si>
+    <t>赵施春</t>
+  </si>
+  <si>
+    <t>刘鑫</t>
+  </si>
+  <si>
+    <t>申宇鹏</t>
+  </si>
+  <si>
+    <t>张宇超</t>
+  </si>
+  <si>
+    <t>网上购物系统</t>
+  </si>
+  <si>
+    <t>陆恬</t>
+  </si>
+  <si>
+    <t>刘镜瑞</t>
+  </si>
+  <si>
+    <t>孙梦莹</t>
+  </si>
+  <si>
+    <t>李玲</t>
+  </si>
+  <si>
+    <t>束雯</t>
+  </si>
+  <si>
+    <t>姜羽珲</t>
+  </si>
+  <si>
+    <t>姬聪</t>
+  </si>
+  <si>
+    <t>郭辰辰</t>
+  </si>
+  <si>
+    <t>图书馆管理系统</t>
+  </si>
+  <si>
+    <t>樊博渊</t>
+  </si>
+  <si>
+    <t>马小雨</t>
+  </si>
+  <si>
+    <t>王丽</t>
+  </si>
+  <si>
+    <t>王怡婷</t>
+  </si>
+  <si>
+    <t>肖佳颖</t>
+  </si>
+  <si>
+    <t>欧慧欣</t>
+  </si>
+  <si>
+    <t>贺玲玲</t>
+  </si>
+  <si>
+    <t>顾成燕</t>
+  </si>
+  <si>
+    <t>蒋蓓蓓</t>
+  </si>
+  <si>
+    <t>超市管理系统</t>
+  </si>
+  <si>
+    <t>张庆峰</t>
+  </si>
+  <si>
+    <t>宋景</t>
+  </si>
+  <si>
+    <t>纪丹青</t>
+  </si>
+  <si>
+    <t>徐乐</t>
+  </si>
+  <si>
+    <t>殷超</t>
+  </si>
+  <si>
+    <t>姚唯唯</t>
+  </si>
+  <si>
+    <t>郭松岩</t>
+  </si>
+  <si>
+    <t>大中型医院管理系统</t>
+  </si>
+  <si>
+    <t>王韵</t>
+  </si>
+  <si>
+    <t>周游</t>
+  </si>
+  <si>
+    <t>张浩铭</t>
+  </si>
+  <si>
+    <t>张安宁</t>
+  </si>
+  <si>
+    <t>袁帅</t>
+  </si>
+  <si>
+    <t>夏强</t>
+  </si>
+  <si>
+    <t>程伟康</t>
+  </si>
+  <si>
+    <t>餐饮管理系统</t>
+  </si>
+  <si>
+    <t>潘浩</t>
+  </si>
+  <si>
+    <t>王强</t>
+  </si>
+  <si>
+    <t>隆鹏宇</t>
+  </si>
+  <si>
+    <t>陈乾坤</t>
+  </si>
+  <si>
+    <t>陆辉明</t>
+  </si>
+  <si>
+    <t>周钰钦</t>
+  </si>
+  <si>
+    <t>张彬</t>
+  </si>
+  <si>
+    <t>黄伟嘉</t>
+  </si>
+  <si>
     <t>戴为</t>
-  </si>
-  <si>
-    <t>李皞</t>
-  </si>
-  <si>
-    <t>马菁宇</t>
-  </si>
-  <si>
-    <t>杨徐峰</t>
-  </si>
-  <si>
-    <t>李翔宇</t>
-  </si>
-  <si>
-    <t>许寒玲</t>
-  </si>
-  <si>
-    <t>杨静</t>
-  </si>
-  <si>
-    <t>邱洪明</t>
-  </si>
-  <si>
-    <t>图书馆书目检索系统</t>
-  </si>
-  <si>
-    <t>李正</t>
-  </si>
-  <si>
-    <t>周子博</t>
-  </si>
-  <si>
-    <t>靳轩</t>
-  </si>
-  <si>
-    <t>王硕</t>
-  </si>
-  <si>
-    <t>蒋坤</t>
-  </si>
-  <si>
-    <t>BMI贴身顾问</t>
-  </si>
-  <si>
-    <t>周文祥</t>
-  </si>
-  <si>
-    <t>庄忠琪</t>
-  </si>
-  <si>
-    <t>茅华荣</t>
-  </si>
-  <si>
-    <t>赵施春</t>
-  </si>
-  <si>
-    <t>刘鑫</t>
-  </si>
-  <si>
-    <t>申宇鹏</t>
-  </si>
-  <si>
-    <t>张宇超</t>
-  </si>
-  <si>
-    <t>网上购物系统</t>
-  </si>
-  <si>
-    <t>陆恬</t>
-  </si>
-  <si>
-    <t>刘镜瑞</t>
-  </si>
-  <si>
-    <t>孙梦莹</t>
-  </si>
-  <si>
-    <t>李玲</t>
-  </si>
-  <si>
-    <t>束雯</t>
-  </si>
-  <si>
-    <t>姜羽珲</t>
-  </si>
-  <si>
-    <t>姬聪</t>
-  </si>
-  <si>
-    <t>郭辰辰</t>
-  </si>
-  <si>
-    <t>图书馆管理系统</t>
-  </si>
-  <si>
-    <t>樊博渊</t>
-  </si>
-  <si>
-    <t>马小雨</t>
-  </si>
-  <si>
-    <t>王丽</t>
-  </si>
-  <si>
-    <t>王怡婷</t>
-  </si>
-  <si>
-    <t>肖佳颖</t>
-  </si>
-  <si>
-    <t>欧慧欣</t>
-  </si>
-  <si>
-    <t>贺玲玲</t>
-  </si>
-  <si>
-    <t>顾成燕</t>
-  </si>
-  <si>
-    <t>蒋蓓蓓</t>
-  </si>
-  <si>
-    <t>超市管理系统</t>
-  </si>
-  <si>
-    <t>张庆峰</t>
-  </si>
-  <si>
-    <t>宋景</t>
-  </si>
-  <si>
-    <t>纪丹青</t>
-  </si>
-  <si>
-    <t>徐乐</t>
-  </si>
-  <si>
-    <t>殷超</t>
-  </si>
-  <si>
-    <t>姚唯唯</t>
-  </si>
-  <si>
-    <t>郭松岩</t>
-  </si>
-  <si>
-    <t>大中型医院管理系统</t>
-  </si>
-  <si>
-    <t>王韵</t>
-  </si>
-  <si>
-    <t>周游</t>
-  </si>
-  <si>
-    <t>张浩铭</t>
-  </si>
-  <si>
-    <t>张安宁</t>
-  </si>
-  <si>
-    <t>袁帅</t>
-  </si>
-  <si>
-    <t>夏强</t>
-  </si>
-  <si>
-    <t>程伟康</t>
-  </si>
-  <si>
-    <t>餐饮管理系统</t>
-  </si>
-  <si>
-    <t>潘浩</t>
-  </si>
-  <si>
-    <t>王强</t>
-  </si>
-  <si>
-    <t>隆鹏宇</t>
-  </si>
-  <si>
-    <t>陈乾坤</t>
-  </si>
-  <si>
-    <t>陆辉明</t>
-  </si>
-  <si>
-    <t>周钰钦</t>
-  </si>
-  <si>
-    <t>张彬</t>
-  </si>
-  <si>
-    <t>黄伟嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1309,13 +1310,13 @@
         <v>13002133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1">
         <v>13002121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1329,7 +1330,7 @@
         <v>13002111</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1343,7 +1344,7 @@
         <v>13002124</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1357,7 +1358,7 @@
         <v>13002120</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1371,7 +1372,7 @@
         <v>13002103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1385,7 +1386,7 @@
         <v>13002106</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1399,7 +1400,7 @@
         <v>13002125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1409,19 +1410,19 @@
         <v>2102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2">
         <v>13002119</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="1">
         <v>13002126</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1435,7 +1436,7 @@
         <v>13002132</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1449,7 +1450,7 @@
         <v>13002114</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1463,7 +1464,7 @@
         <v>13002131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1473,19 +1474,19 @@
         <v>2103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2">
         <v>13002127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1">
         <v>13002117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -1501,7 +1502,7 @@
         <v>13002128</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1515,7 +1516,7 @@
         <v>13002129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1529,7 +1530,7 @@
         <v>13002116</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1543,7 +1544,7 @@
         <v>13002115</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1557,7 +1558,7 @@
         <v>13002118</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1567,19 +1568,19 @@
         <v>2104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2">
         <v>13002107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1">
         <v>13002101</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -1595,7 +1596,7 @@
         <v>13002102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1609,7 +1610,7 @@
         <v>13002104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1623,7 +1624,7 @@
         <v>13002105</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1637,7 +1638,7 @@
         <v>13002108</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1651,7 +1652,7 @@
         <v>13002109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1665,7 +1666,7 @@
         <v>13002110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1675,19 +1676,19 @@
         <v>2201</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2">
         <v>13002210</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1">
         <v>13002201</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1701,7 +1702,7 @@
         <v>13002202</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1715,7 +1716,7 @@
         <v>13002203</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1729,7 +1730,7 @@
         <v>13002205</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1743,7 +1744,7 @@
         <v>13002206</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1757,7 +1758,7 @@
         <v>13002207</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -1771,7 +1772,7 @@
         <v>13002208</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1785,7 +1786,7 @@
         <v>13002209</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1795,19 +1796,19 @@
         <v>2202</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2">
         <v>13002219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1">
         <v>13002217</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -1821,7 +1822,7 @@
         <v>13002216</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -1835,7 +1836,7 @@
         <v>13002228</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -1849,7 +1850,7 @@
         <v>13002229</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1863,7 +1864,7 @@
         <v>13002226</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1877,7 +1878,7 @@
         <v>13002231</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -1887,19 +1888,19 @@
         <v>2203</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2">
         <v>13002213</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E71" s="1">
         <v>13002225</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -1913,7 +1914,7 @@
         <v>13002220</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1927,7 +1928,7 @@
         <v>13002218</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1941,7 +1942,7 @@
         <v>13002230</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -1955,7 +1956,7 @@
         <v>13002227</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -1969,7 +1970,7 @@
         <v>13002234</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -1979,19 +1980,19 @@
         <v>2204</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2">
         <v>14002235</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="1">
         <v>13002212</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2005,7 +2006,7 @@
         <v>13002232</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2019,7 +2020,7 @@
         <v>13002223</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2033,7 +2034,7 @@
         <v>13002222</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2047,7 +2048,7 @@
         <v>13002224</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2061,7 +2062,7 @@
         <v>13002221</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2075,44 +2076,50 @@
         <v>13002233</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="H11:H16"/>
@@ -2129,43 +2136,37 @@
     <mergeCell ref="D33:D39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -171,6 +171,9 @@
     <t>RSA的加密和解密</t>
   </si>
   <si>
+    <t>戴为</t>
+  </si>
+  <si>
     <t>李皞</t>
   </si>
   <si>
@@ -364,10 +367,6 @@
   </si>
   <si>
     <t>黄伟嘉</t>
-  </si>
-  <si>
-    <t>戴为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -789,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1310,13 +1309,13 @@
         <v>13002133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1">
         <v>13002121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1330,7 +1329,7 @@
         <v>13002111</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1344,7 +1343,7 @@
         <v>13002124</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1358,7 +1357,7 @@
         <v>13002120</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1372,7 +1371,7 @@
         <v>13002103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1386,7 +1385,7 @@
         <v>13002106</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1400,7 +1399,7 @@
         <v>13002125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1410,19 +1409,19 @@
         <v>2102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2">
         <v>13002119</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1">
         <v>13002126</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1436,7 +1435,7 @@
         <v>13002132</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1450,7 +1449,7 @@
         <v>13002114</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1464,7 +1463,7 @@
         <v>13002131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1474,19 +1473,19 @@
         <v>2103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2">
         <v>13002127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1">
         <v>13002117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -1502,7 +1501,7 @@
         <v>13002128</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1516,7 +1515,7 @@
         <v>13002129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1530,7 +1529,7 @@
         <v>13002116</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1544,7 +1543,7 @@
         <v>13002115</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1558,7 +1557,7 @@
         <v>13002118</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1568,19 +1567,19 @@
         <v>2104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2">
         <v>13002107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1">
         <v>13002101</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -1596,7 +1595,7 @@
         <v>13002102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1610,7 +1609,7 @@
         <v>13002104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1624,7 +1623,7 @@
         <v>13002105</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1638,7 +1637,7 @@
         <v>13002108</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1652,7 +1651,7 @@
         <v>13002109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1666,7 +1665,7 @@
         <v>13002110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1676,19 +1675,19 @@
         <v>2201</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2">
         <v>13002210</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" s="1">
         <v>13002201</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1702,7 +1701,7 @@
         <v>13002202</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1716,7 +1715,7 @@
         <v>13002203</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1730,7 +1729,7 @@
         <v>13002205</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1744,7 +1743,7 @@
         <v>13002206</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1758,7 +1757,7 @@
         <v>13002207</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -1772,7 +1771,7 @@
         <v>13002208</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1786,7 +1785,7 @@
         <v>13002209</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1796,19 +1795,19 @@
         <v>2202</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2">
         <v>13002219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1">
         <v>13002217</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -1822,7 +1821,7 @@
         <v>13002216</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -1836,7 +1835,7 @@
         <v>13002228</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -1850,7 +1849,7 @@
         <v>13002229</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1864,7 +1863,7 @@
         <v>13002226</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1878,7 +1877,7 @@
         <v>13002231</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -1888,19 +1887,19 @@
         <v>2203</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2">
         <v>13002213</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1">
         <v>13002225</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -1914,7 +1913,7 @@
         <v>13002220</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1928,7 +1927,7 @@
         <v>13002218</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1942,7 +1941,7 @@
         <v>13002230</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -1956,7 +1955,7 @@
         <v>13002227</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -1970,7 +1969,7 @@
         <v>13002234</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -1980,19 +1979,19 @@
         <v>2204</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2">
         <v>14002235</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="1">
         <v>13002212</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2006,7 +2005,7 @@
         <v>13002232</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2020,7 +2019,7 @@
         <v>13002223</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2034,7 +2033,7 @@
         <v>13002222</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2048,7 +2047,7 @@
         <v>13002224</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2062,7 +2061,7 @@
         <v>13002221</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2076,34 +2075,60 @@
         <v>13002233</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="G44:G49"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A83"/>
@@ -2120,53 +2145,27 @@
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="C77:C83"/>
     <mergeCell ref="D77:D83"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="10620" yWindow="380" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -835,7 +835,9 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
@@ -899,7 +901,9 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -977,7 +981,9 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
@@ -1069,7 +1075,9 @@
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
@@ -1317,7 +1325,9 @@
       <c r="F33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
@@ -1423,7 +1433,9 @@
       <c r="F40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
@@ -1901,7 +1913,9 @@
       <c r="F71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
@@ -1993,7 +2007,9 @@
       <c r="F77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8">
@@ -2082,37 +2098,43 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="H11:H16"/>
@@ -2129,43 +2151,37 @@
     <mergeCell ref="D33:D39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="380" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>小组编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,14 @@
   </si>
   <si>
     <t>黄伟嘉</t>
+  </si>
+  <si>
+    <t>12 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -901,8 +909,8 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1325,8 +1333,8 @@
       <c r="F33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="2">
-        <v>1</v>
+      <c r="G33" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1821,7 +1829,9 @@
       <c r="F65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
@@ -2098,27 +2108,53 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="G44:G49"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A83"/>
@@ -2135,53 +2171,27 @@
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="C77:C83"/>
     <mergeCell ref="D77:D83"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>小组编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,14 @@
   </si>
   <si>
     <t>12 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +805,7 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -989,8 +997,8 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2">
-        <v>1</v>
+      <c r="G11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1191,7 +1199,9 @@
       <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
@@ -1709,7 +1719,9 @@
       <c r="F57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
@@ -1923,8 +1935,8 @@
       <c r="F71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G71" s="2">
-        <v>1</v>
+      <c r="G71" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="H71" s="2"/>
     </row>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>小组编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据流的离群点检测</t>
   </si>
   <si>
@@ -318,9 +310,6 @@
     <t>郭松岩</t>
   </si>
   <si>
-    <t>大中型医院管理系统</t>
-  </si>
-  <si>
     <t>王韵</t>
   </si>
   <si>
@@ -373,15 +362,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 2 ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1 2 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院计算机监护系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件设计40%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,6 +441,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -457,12 +479,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -804,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -816,20 +839,21 @@
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -837,22 +861,22 @@
         <v>2301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>13002307</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>13002302</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -865,7 +889,7 @@
         <v>13002303</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -879,7 +903,7 @@
         <v>13002305</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -893,7 +917,7 @@
         <v>13002306</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -903,22 +927,22 @@
         <v>2302</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>13002308</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>13002301</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -931,7 +955,7 @@
         <v>13002304</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -945,7 +969,7 @@
         <v>13002311</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -959,7 +983,7 @@
         <v>13002215</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -973,7 +997,7 @@
         <v>13002112</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -983,24 +1007,26 @@
         <v>2303</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>13002316</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>13002314</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
@@ -1011,7 +1037,7 @@
         <v>13002327</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1025,7 +1051,7 @@
         <v>13002328</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1039,7 +1065,7 @@
         <v>13002329</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1053,7 +1079,7 @@
         <v>13002317</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1067,7 +1093,7 @@
         <v>13002326</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1077,24 +1103,26 @@
         <v>2304</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>13002331</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1">
         <v>13002312</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="2">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2"/>
@@ -1105,7 +1133,7 @@
         <v>13002319</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1119,7 +1147,7 @@
         <v>13002324</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1133,7 +1161,7 @@
         <v>13002318</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1147,7 +1175,7 @@
         <v>13002313</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1161,7 +1189,7 @@
         <v>13002330</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1175,7 +1203,7 @@
         <v>13002310</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1185,19 +1213,19 @@
         <v>2305</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
         <v>13002322</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
         <v>13002325</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1213,7 +1241,7 @@
         <v>13002122</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1227,7 +1255,7 @@
         <v>13002211</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1241,7 +1269,7 @@
         <v>13002334</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1251,19 +1279,19 @@
         <v>2306</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <v>13002321</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1">
         <v>13002333</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1277,7 +1305,7 @@
         <v>13002335</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1291,7 +1319,7 @@
         <v>13002332</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1305,7 +1333,7 @@
         <v>13002320</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1319,7 +1347,7 @@
         <v>13002323</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1329,22 +1357,22 @@
         <v>2101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>13002133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1">
         <v>13002121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1357,7 +1385,7 @@
         <v>13002111</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1371,7 +1399,7 @@
         <v>13002124</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1385,7 +1413,7 @@
         <v>13002120</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1399,7 +1427,7 @@
         <v>13002103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1413,7 +1441,7 @@
         <v>13002106</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1427,7 +1455,7 @@
         <v>13002125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1437,22 +1465,22 @@
         <v>2102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
         <v>13002119</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1">
         <v>13002126</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -1465,7 +1493,7 @@
         <v>13002132</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1479,7 +1507,7 @@
         <v>13002114</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1493,7 +1521,7 @@
         <v>13002131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1503,19 +1531,19 @@
         <v>2103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2">
         <v>13002127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1">
         <v>13002117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -1531,7 +1559,7 @@
         <v>13002128</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1545,7 +1573,7 @@
         <v>13002129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1559,7 +1587,7 @@
         <v>13002116</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1573,7 +1601,7 @@
         <v>13002115</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1587,7 +1615,7 @@
         <v>13002118</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1597,19 +1625,19 @@
         <v>2104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2">
         <v>13002107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1">
         <v>13002101</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -1625,7 +1653,7 @@
         <v>13002102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1639,7 +1667,7 @@
         <v>13002104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1653,7 +1681,7 @@
         <v>13002105</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1667,7 +1695,7 @@
         <v>13002108</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1681,7 +1709,7 @@
         <v>13002109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1695,7 +1723,7 @@
         <v>13002110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1705,22 +1733,22 @@
         <v>2201</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2">
         <v>13002210</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1">
         <v>13002201</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -1733,7 +1761,7 @@
         <v>13002202</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1747,7 +1775,7 @@
         <v>13002203</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1761,7 +1789,7 @@
         <v>13002205</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1775,7 +1803,7 @@
         <v>13002206</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1789,7 +1817,7 @@
         <v>13002207</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -1803,7 +1831,7 @@
         <v>13002208</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1817,7 +1845,7 @@
         <v>13002209</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1827,19 +1855,19 @@
         <v>2202</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2">
         <v>13002219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1">
         <v>13002217</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -1855,7 +1883,7 @@
         <v>13002216</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -1869,7 +1897,7 @@
         <v>13002228</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -1883,7 +1911,7 @@
         <v>13002229</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1897,7 +1925,7 @@
         <v>13002226</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1911,7 +1939,7 @@
         <v>13002231</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -1921,22 +1949,22 @@
         <v>2203</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2">
         <v>13002213</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E71" s="1">
         <v>13002225</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -1949,7 +1977,7 @@
         <v>13002220</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1963,7 +1991,7 @@
         <v>13002218</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1977,7 +2005,7 @@
         <v>13002230</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -1991,7 +2019,7 @@
         <v>13002227</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -2005,7 +2033,7 @@
         <v>13002234</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2015,19 +2043,19 @@
         <v>2204</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2">
         <v>14002235</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E77" s="1">
         <v>13002212</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -2043,7 +2071,7 @@
         <v>13002232</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2057,7 +2085,7 @@
         <v>13002223</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2071,7 +2099,7 @@
         <v>13002222</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2085,7 +2113,7 @@
         <v>13002224</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2099,7 +2127,7 @@
         <v>13002221</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2113,44 +2141,50 @@
         <v>13002233</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="H11:H16"/>
@@ -2167,43 +2201,37 @@
     <mergeCell ref="D33:D39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/120021-23课题汇总表.xlsx
+++ b/120021-23课题汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>小组编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,15 +386,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需求分析60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件设计40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1 2 OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求分析60%</t>
+    <t>1 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件设计40%</t>
+    <t>1 2 ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -827,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -849,24 +857,24 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2301</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>13002307</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1">
@@ -875,64 +883,64 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>13002303</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1">
         <v>13002305</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>13002306</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2302</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>13002308</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1">
@@ -941,78 +949,80 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <v>13002304</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <v>13002311</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <v>13002215</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1">
         <v>13002112</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>2303</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>13002316</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1">
@@ -1021,94 +1031,94 @@
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
+      <c r="H11" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1">
         <v>13002327</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1">
         <v>13002328</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1">
         <v>13002329</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1">
         <v>13002317</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1">
         <v>13002326</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>2304</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>13002331</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="1">
@@ -1117,108 +1127,108 @@
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
+      <c r="H17" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="1">
         <v>13002319</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1">
         <v>13002324</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1">
         <v>13002318</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1">
         <v>13002313</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1">
         <v>13002330</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1">
         <v>13002310</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>2305</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>13002322</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="1">
@@ -1227,64 +1237,64 @@
       <c r="F24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1">
         <v>13002122</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1">
         <v>13002211</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1">
         <v>13002334</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>2306</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>13002321</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="1">
@@ -1293,76 +1303,76 @@
       <c r="F28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1">
         <v>13002335</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1">
         <v>13002332</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1">
         <v>13002320</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1">
         <v>13002323</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>2101</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>13002133</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="1">
@@ -1371,106 +1381,108 @@
       <c r="F33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="1">
         <v>13002111</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="1">
         <v>13002124</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="1">
         <v>13002120</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="1">
         <v>13002103</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="1">
         <v>13002106</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="1">
         <v>13002125</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>2102</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>13002119</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="1">
@@ -1479,64 +1491,64 @@
       <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="1">
         <v>13002132</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1">
         <v>13002114</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1">
         <v>13002131</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>2103</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>13002127</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="1">
@@ -1545,92 +1557,92 @@
       <c r="F44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="1">
         <v>13002128</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="1">
         <v>13002129</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="1">
         <v>13002116</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1">
         <v>13002115</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="1">
         <v>13002118</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>2104</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>13002107</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="1">
@@ -1639,106 +1651,108 @@
       <c r="F50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="1">
         <v>13002102</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="1">
         <v>13002104</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="1">
         <v>13002105</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="1">
         <v>13002108</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="1">
         <v>13002109</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="1">
         <v>13002110</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>2201</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>13002210</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E57" s="1">
@@ -1747,120 +1761,122 @@
       <c r="F57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="1">
         <v>13002202</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="1">
         <v>13002203</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="1">
         <v>13002205</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="1">
         <v>13002206</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="1">
         <v>13002207</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="1">
         <v>13002208</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="1">
         <v>13002209</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>2202</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>13002219</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="1">
@@ -1869,92 +1885,94 @@
       <c r="F65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="3">
         <v>1</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="1">
         <v>13002216</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="1">
         <v>13002228</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="1">
         <v>13002229</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="1">
         <v>13002226</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="1">
         <v>13002231</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>2203</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>13002213</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E71" s="1">
@@ -1963,92 +1981,94 @@
       <c r="F71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="1">
         <v>13002220</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="1">
         <v>13002218</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="1">
         <v>13002230</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="1">
         <v>13002227</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="1">
         <v>13002234</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>2204</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>14002235</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="1">
@@ -2057,118 +2077,146 @@
       <c r="F77" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="1">
         <v>13002232</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="1">
         <v>13002223</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="1">
         <v>13002222</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="1">
         <v>13002224</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="1">
         <v>13002221</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="1">
         <v>13002233</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="H44:H49"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H71:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
-    <mergeCell ref="G77:G83"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
     <mergeCell ref="G44:G49"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A83"/>
@@ -2185,53 +2233,27 @@
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="C77:C83"/>
     <mergeCell ref="D77:D83"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="G77:G83"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H71:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
